--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.5581306439543</v>
+        <v>166.9493318713103</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.0543235678247</v>
+        <v>228.4274411509298</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.4386126870292</v>
+        <v>206.6266467674781</v>
       </c>
       <c r="AD2" t="n">
-        <v>142558.1306439543</v>
+        <v>166949.3318713103</v>
       </c>
       <c r="AE2" t="n">
-        <v>195054.3235678247</v>
+        <v>228427.4411509298</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.912597004186259e-06</v>
+        <v>7.239328832096276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.883463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176438.6126870292</v>
+        <v>206626.6467674781</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.98209314134517</v>
+        <v>110.2879535141296</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.644493098175</v>
+        <v>150.9008435590825</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.4166677919989</v>
+        <v>136.499078840509</v>
       </c>
       <c r="AD3" t="n">
-        <v>85982.09314134518</v>
+        <v>110287.9535141296</v>
       </c>
       <c r="AE3" t="n">
-        <v>117644.493098175</v>
+        <v>150900.8435590825</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.658168368436398e-06</v>
+        <v>1.046909287172955e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.685546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>106416.6677919989</v>
+        <v>136499.078840509</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.43679461036302</v>
+        <v>88.54714387802045</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.584194539241</v>
+        <v>121.1541086781443</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.6028257972812</v>
+        <v>109.5913305867934</v>
       </c>
       <c r="AD4" t="n">
-        <v>76436.79461036302</v>
+        <v>88547.14387802045</v>
       </c>
       <c r="AE4" t="n">
-        <v>104584.194539241</v>
+        <v>121154.1086781443</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.362521725940841e-06</v>
+        <v>1.177233099298508e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.3876953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>94602.8257972812</v>
+        <v>109591.3305867934</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.46201804157542</v>
+        <v>82.57236730923286</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.40924164929085</v>
+        <v>112.9791557881942</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.20807893752682</v>
+        <v>102.196583727039</v>
       </c>
       <c r="AD5" t="n">
-        <v>70462.01804157541</v>
+        <v>82572.36730923285</v>
       </c>
       <c r="AE5" t="n">
-        <v>96409.24164929085</v>
+        <v>112979.1557881942</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.874727786289378e-06</v>
+        <v>1.272004630756725e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.210286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>87208.07893752682</v>
+        <v>102196.583727039</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.74075210572785</v>
+        <v>79.85110137338529</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.68588554208594</v>
+        <v>109.2557996809893</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.84007471142927</v>
+        <v>98.82857950094147</v>
       </c>
       <c r="AD6" t="n">
-        <v>67740.75210572785</v>
+        <v>79851.10137338529</v>
       </c>
       <c r="AE6" t="n">
-        <v>92685.88554208595</v>
+        <v>109255.7996809893</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.127656371321129e-06</v>
+        <v>1.318803041022913e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.132161458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>83840.07471142926</v>
+        <v>98828.57950094147</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.45378261194618</v>
+        <v>78.56413187960362</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.92499710360781</v>
+        <v>107.4949112425111</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.24724299409648</v>
+        <v>97.23574778360869</v>
       </c>
       <c r="AD7" t="n">
-        <v>66453.78261194618</v>
+        <v>78564.13187960362</v>
       </c>
       <c r="AE7" t="n">
-        <v>90924.99710360781</v>
+        <v>107494.9112425111</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.206924133850461e-06</v>
+        <v>1.33346965243524e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>82247.24299409648</v>
+        <v>97235.74778360869</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.71508007069008</v>
+        <v>76.82542933834752</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.54602758051993</v>
+        <v>105.1159417194233</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.09531898338665</v>
+        <v>95.08382377289888</v>
       </c>
       <c r="AD8" t="n">
-        <v>64715.08007069008</v>
+        <v>76825.42933834752</v>
       </c>
       <c r="AE8" t="n">
-        <v>88546.02758051993</v>
+        <v>105115.9417194233</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.329700468039e-06</v>
+        <v>1.356186488721706e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.073567708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>80095.31898338665</v>
+        <v>95083.82377289888</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>64.18150641190135</v>
+        <v>76.29185567955878</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.81596856095709</v>
+        <v>104.3858826998604</v>
       </c>
       <c r="AC9" t="n">
-        <v>79.43493577200637</v>
+        <v>94.4234405615186</v>
       </c>
       <c r="AD9" t="n">
-        <v>64181.50641190136</v>
+        <v>76291.85567955878</v>
       </c>
       <c r="AE9" t="n">
-        <v>87815.96856095709</v>
+        <v>104385.8826998604</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.345105863583569e-06</v>
+        <v>1.359036890232936e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.068684895833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>79434.93577200637</v>
+        <v>94423.4405615186</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.2329228456412</v>
+        <v>76.34327211329862</v>
       </c>
       <c r="AB10" t="n">
-        <v>87.88631879393284</v>
+        <v>104.4562329328362</v>
       </c>
       <c r="AC10" t="n">
-        <v>79.49857187748415</v>
+        <v>94.48707666699634</v>
       </c>
       <c r="AD10" t="n">
-        <v>64232.92284564119</v>
+        <v>76343.27211329862</v>
       </c>
       <c r="AE10" t="n">
-        <v>87886.31879393285</v>
+        <v>104456.2329328362</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.357243447952017e-06</v>
+        <v>1.361282661120571e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.0654296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>79498.57187748415</v>
+        <v>94487.07666699635</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6522995960073</v>
+        <v>123.4161012372754</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.7676020590078</v>
+        <v>168.8633544468832</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.187676529214</v>
+        <v>152.7472728997261</v>
       </c>
       <c r="AD2" t="n">
-        <v>111652.2995960073</v>
+        <v>123416.1012372754</v>
       </c>
       <c r="AE2" t="n">
-        <v>152767.6020590078</v>
+        <v>168863.3544468833</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.767381241372951e-06</v>
+        <v>9.087364407438994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.297526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138187.676529214</v>
+        <v>152747.2728997261</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.43258932345299</v>
+        <v>84.11105011014951</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.10546421262374</v>
+        <v>115.0844494783016</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.64697780358823</v>
+        <v>104.1009511421615</v>
       </c>
       <c r="AD3" t="n">
-        <v>72432.58932345299</v>
+        <v>84111.0501101495</v>
       </c>
       <c r="AE3" t="n">
-        <v>99105.46421262374</v>
+        <v>115084.4494783016</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.480138216864079e-06</v>
+        <v>1.235214353661737e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.425130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89646.97780358823</v>
+        <v>104100.9511421615</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.06728952191942</v>
+        <v>77.74575030861591</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.39618020696173</v>
+        <v>106.3751654726396</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.76889563986693</v>
+        <v>96.22286897844023</v>
       </c>
       <c r="AD4" t="n">
-        <v>66067.28952191942</v>
+        <v>77745.75030861591</v>
       </c>
       <c r="AE4" t="n">
-        <v>90396.18020696173</v>
+        <v>106375.1654726395</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.116252661153515e-06</v>
+        <v>1.356467584050103e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.208658854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81768.89563986693</v>
+        <v>96222.86897844024</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.84144151598614</v>
+        <v>74.51990230268264</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.98243265087602</v>
+        <v>101.9614179165539</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.77638995579906</v>
+        <v>92.23036329437237</v>
       </c>
       <c r="AD5" t="n">
-        <v>62841.44151598614</v>
+        <v>74519.90230268263</v>
       </c>
       <c r="AE5" t="n">
-        <v>85982.43265087603</v>
+        <v>101961.4179165539</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.43662794383011e-06</v>
+        <v>1.417536057356845e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.1142578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>77776.38995579907</v>
+        <v>92230.36329437236</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.68032163792812</v>
+        <v>72.35878242462461</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.0254930918384</v>
+        <v>99.00447835751623</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.1016565581843</v>
+        <v>89.55562989675759</v>
       </c>
       <c r="AD6" t="n">
-        <v>60680.32163792811</v>
+        <v>72358.7824246246</v>
       </c>
       <c r="AE6" t="n">
-        <v>83025.49309183841</v>
+        <v>99004.47835751623</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.60797125147807e-06</v>
+        <v>1.450196736176912e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.067057291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>75101.6565581843</v>
+        <v>89555.6298967576</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.71575805371273</v>
+        <v>71.39421884040922</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.70573464237353</v>
+        <v>97.68471990805136</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.90785400284332</v>
+        <v>88.36182734141661</v>
       </c>
       <c r="AD7" t="n">
-        <v>59715.75805371274</v>
+        <v>71394.21884040923</v>
       </c>
       <c r="AE7" t="n">
-        <v>81705.73464237353</v>
+        <v>97684.71990805137</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.708710298759254e-06</v>
+        <v>1.469399153318586e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.039388020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>73907.85400284332</v>
+        <v>88361.82734141662</v>
       </c>
     </row>
   </sheetData>
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.28077655967941</v>
+        <v>68.65896770484957</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.74232965532258</v>
+        <v>93.94222863361692</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.13183363209968</v>
+        <v>84.97651418159352</v>
       </c>
       <c r="AD2" t="n">
-        <v>58280.77655967941</v>
+        <v>68658.96770484958</v>
       </c>
       <c r="AE2" t="n">
-        <v>79742.32965532258</v>
+        <v>93942.22863361692</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.158357162751448e-06</v>
+        <v>1.524542739358655e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.451171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>72131.83363209969</v>
+        <v>84976.51418159352</v>
       </c>
     </row>
     <row r="3">
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.06339676729012</v>
+        <v>60.44158791246028</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.49894809817049</v>
+        <v>82.69884707646486</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.96150463057349</v>
+        <v>74.80618518006733</v>
       </c>
       <c r="AD3" t="n">
-        <v>50063.39676729012</v>
+        <v>60441.58791246028</v>
       </c>
       <c r="AE3" t="n">
-        <v>68498.94809817048</v>
+        <v>82698.84707646485</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.388293957062105e-06</v>
+        <v>1.786487088740021e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.091471354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>61961.50463057349</v>
+        <v>74806.18518006733</v>
       </c>
     </row>
   </sheetData>
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.50883053866721</v>
+        <v>77.56596743943904</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.00031610549061</v>
+        <v>106.1291786195714</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.3153736561505</v>
+        <v>96.00035876538415</v>
       </c>
       <c r="AD2" t="n">
-        <v>66508.83053866721</v>
+        <v>77565.96743943903</v>
       </c>
       <c r="AE2" t="n">
-        <v>91000.31610549061</v>
+        <v>106129.1786195714</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.569478615513185e-06</v>
+        <v>1.333831286625365e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.5537109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>82315.37365615049</v>
+        <v>96000.35876538415</v>
       </c>
     </row>
     <row r="3">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.18350725296222</v>
+        <v>68.07005195314184</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.24099738176751</v>
+        <v>93.13644812100148</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.77378640359916</v>
+        <v>84.24763623018178</v>
       </c>
       <c r="AD3" t="n">
-        <v>57183.50725296221</v>
+        <v>68070.05195314184</v>
       </c>
       <c r="AE3" t="n">
-        <v>78240.99738176752</v>
+        <v>93136.44812100148</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.720653026056922e-06</v>
+        <v>1.567559491709994e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.1728515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>70773.78640359917</v>
+        <v>84247.63623018179</v>
       </c>
     </row>
     <row r="4">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.72074801258286</v>
+        <v>64.60729271276247</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.50309742292687</v>
+        <v>88.39854816216084</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.48806496714441</v>
+        <v>79.96191479372703</v>
       </c>
       <c r="AD4" t="n">
-        <v>53720.74801258286</v>
+        <v>64607.29271276247</v>
       </c>
       <c r="AE4" t="n">
-        <v>73503.09742292688</v>
+        <v>88398.54816216083</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.135859416675787e-06</v>
+        <v>1.651860744005184e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.062174479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>66488.06496714441</v>
+        <v>79961.91479372703</v>
       </c>
     </row>
     <row r="5">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.81442831358251</v>
+        <v>64.70097301376212</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.63127494363772</v>
+        <v>88.52672568287167</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.60400940517694</v>
+        <v>80.07785923175956</v>
       </c>
       <c r="AD5" t="n">
-        <v>53814.42831358251</v>
+        <v>64700.97301376212</v>
       </c>
       <c r="AE5" t="n">
-        <v>73631.27494363772</v>
+        <v>88526.72568287168</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.138540163175935e-06</v>
+        <v>1.652405028226609e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.062174479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>66604.00940517694</v>
+        <v>80077.85923175956</v>
       </c>
     </row>
   </sheetData>
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.58544160610013</v>
+        <v>57.54667855707289</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.10850052696573</v>
+        <v>78.73790438203869</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.89463661704038</v>
+        <v>71.22326929717796</v>
       </c>
       <c r="AD2" t="n">
-        <v>47585.44160610012</v>
+        <v>57546.6785570729</v>
       </c>
       <c r="AE2" t="n">
-        <v>65108.50052696573</v>
+        <v>78737.90438203869</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.422263430965884e-06</v>
+        <v>1.875473559023246e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.1630859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>58894.63661704038</v>
+        <v>71223.26929717796</v>
       </c>
     </row>
     <row r="3">
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.52294011731363</v>
+        <v>57.4841770682864</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.022983232637</v>
+        <v>78.65238708770995</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.81728097325809</v>
+        <v>71.14591365339567</v>
       </c>
       <c r="AD3" t="n">
-        <v>47522.94011731363</v>
+        <v>57484.1770682864</v>
       </c>
       <c r="AE3" t="n">
-        <v>65022.98323263701</v>
+        <v>78652.38708770995</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.455172079593716e-06</v>
+        <v>1.882801672287641e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.154947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58817.28097325809</v>
+        <v>71145.91365339566</v>
       </c>
     </row>
   </sheetData>
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0601972428212</v>
+        <v>141.6440656974123</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5351703158667</v>
+        <v>193.8036595822673</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.1184803770003</v>
+        <v>175.307310316935</v>
       </c>
       <c r="AD2" t="n">
-        <v>118060.1972428212</v>
+        <v>141644.0656974123</v>
       </c>
       <c r="AE2" t="n">
-        <v>161535.1703158666</v>
+        <v>193803.6595822673</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.552263380706321e-06</v>
+        <v>8.607254210241642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4228515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>146118.4803770003</v>
+        <v>175307.310316935</v>
       </c>
     </row>
     <row r="3">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.56387005326341</v>
+        <v>87.35584903483452</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.3898206495044</v>
+        <v>119.5241265174789</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.5224412752664</v>
+        <v>108.116911635847</v>
       </c>
       <c r="AD3" t="n">
-        <v>75563.87005326341</v>
+        <v>87355.84903483452</v>
       </c>
       <c r="AE3" t="n">
-        <v>103389.8206495044</v>
+        <v>119524.1265174789</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.262556744453678e-06</v>
+        <v>1.184101476510187e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.486979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93522.44127526641</v>
+        <v>108116.911635847</v>
       </c>
     </row>
     <row r="4">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.64633611189574</v>
+        <v>80.43831509346684</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.92494553087093</v>
+        <v>110.0592513988454</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.96088055391662</v>
+        <v>99.55535091449727</v>
       </c>
       <c r="AD4" t="n">
-        <v>68646.33611189574</v>
+        <v>80438.31509346684</v>
       </c>
       <c r="AE4" t="n">
-        <v>93924.94553087093</v>
+        <v>110059.2513988454</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.90951627241251e-06</v>
+        <v>1.30642623356358e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.254231770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>84960.88055391662</v>
+        <v>99555.35091449726</v>
       </c>
     </row>
     <row r="5">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.98380314868601</v>
+        <v>76.77578213025711</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.91370635105929</v>
+        <v>105.0480122190338</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.42790700810623</v>
+        <v>95.02237736868689</v>
       </c>
       <c r="AD5" t="n">
-        <v>64983.80314868601</v>
+        <v>76775.78213025711</v>
       </c>
       <c r="AE5" t="n">
-        <v>88913.70635105929</v>
+        <v>105048.0122190338</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.270661160559967e-06</v>
+        <v>1.374710196925387e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.141927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>80427.90700810624</v>
+        <v>95022.3773686869</v>
       </c>
     </row>
     <row r="6">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.56178052148613</v>
+        <v>74.35375950305723</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.599788140429</v>
+        <v>101.7340940084035</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.43026450038401</v>
+        <v>92.02473486096467</v>
       </c>
       <c r="AD6" t="n">
-        <v>62561.78052148613</v>
+        <v>74353.75950305723</v>
       </c>
       <c r="AE6" t="n">
-        <v>85599.78814042899</v>
+        <v>101734.0940084035</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.47664679514606e-06</v>
+        <v>1.413657212338748e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>77430.26450038402</v>
+        <v>92024.73486096467</v>
       </c>
     </row>
     <row r="7">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.82881993020279</v>
+        <v>72.62079891177389</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.22867500661079</v>
+        <v>99.3629808745853</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.2854470761785</v>
+        <v>89.87991743675916</v>
       </c>
       <c r="AD7" t="n">
-        <v>60828.81993020279</v>
+        <v>72620.79891177389</v>
       </c>
       <c r="AE7" t="n">
-        <v>83228.67500661079</v>
+        <v>99362.98087458531</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.614289612309073e-06</v>
+        <v>1.43968221613262e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.0458984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>75285.44707617851</v>
+        <v>89879.91743675916</v>
       </c>
     </row>
     <row r="8">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.10218939613377</v>
+        <v>72.89416837770487</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.60271117010704</v>
+        <v>99.73701703808155</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.62378575319383</v>
+        <v>90.21825611377449</v>
       </c>
       <c r="AD8" t="n">
-        <v>61102.18939613377</v>
+        <v>72894.16837770487</v>
       </c>
       <c r="AE8" t="n">
-        <v>83602.71117010704</v>
+        <v>99737.01703808154</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.578012402500463e-06</v>
+        <v>1.432823053102107e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.0556640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>75623.78575319384</v>
+        <v>90218.25611377449</v>
       </c>
     </row>
   </sheetData>
@@ -7303,28 +7303,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.8913061656614</v>
+        <v>55.60564380443946</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.79050967737789</v>
+        <v>76.08209500107728</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.79787156081589</v>
+        <v>68.82092663608279</v>
       </c>
       <c r="AD2" t="n">
-        <v>45891.3061656614</v>
+        <v>55605.64380443946</v>
       </c>
       <c r="AE2" t="n">
-        <v>62790.50967737789</v>
+        <v>76082.09500107728</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.41666429258721e-06</v>
+        <v>1.929576468781579e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.215169270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56797.87156081588</v>
+        <v>68820.92663608279</v>
       </c>
     </row>
     <row r="3">
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.08656087481024</v>
+        <v>55.8008985135883</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.05766578446502</v>
+        <v>76.34925110816441</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.03953066399865</v>
+        <v>69.06258573926556</v>
       </c>
       <c r="AD3" t="n">
-        <v>46086.56087481024</v>
+        <v>55800.8985135883</v>
       </c>
       <c r="AE3" t="n">
-        <v>63057.66578446502</v>
+        <v>76349.2511081644</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.417237049599296e-06</v>
+        <v>1.929707777149649e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.215169270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>57039.53066399864</v>
+        <v>69062.58573926556</v>
       </c>
     </row>
   </sheetData>
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.16922950827339</v>
+        <v>104.8744699870154</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4275648637371</v>
+        <v>143.493876571251</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6976358662493</v>
+        <v>129.7990223862503</v>
       </c>
       <c r="AD2" t="n">
-        <v>82169.22950827339</v>
+        <v>104874.4699870154</v>
       </c>
       <c r="AE2" t="n">
-        <v>112427.5648637371</v>
+        <v>143493.876571251</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.540406342317114e-06</v>
+        <v>1.085911986289056e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.923177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101697.6358662493</v>
+        <v>129799.0223862503</v>
       </c>
     </row>
     <row r="3">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.53044632677688</v>
+        <v>74.84048564741313</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.92515942974642</v>
+        <v>102.4000541919529</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.6291442140197</v>
+        <v>92.62713673927733</v>
       </c>
       <c r="AD3" t="n">
-        <v>63530.44632677687</v>
+        <v>74840.48564741314</v>
       </c>
       <c r="AE3" t="n">
-        <v>86925.15942974642</v>
+        <v>102400.0541919529</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.192427638927915e-06</v>
+        <v>1.409705877342214e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.252604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>78629.1442140197</v>
+        <v>92627.13673927734</v>
       </c>
     </row>
     <row r="4">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.92300914991758</v>
+        <v>71.23304847055384</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.98930473547391</v>
+        <v>97.46419949768041</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.16436056425142</v>
+        <v>88.16235308950907</v>
       </c>
       <c r="AD4" t="n">
-        <v>59923.00914991758</v>
+        <v>71233.04847055384</v>
       </c>
       <c r="AE4" t="n">
-        <v>81989.30473547391</v>
+        <v>97464.19949768041</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.593068428046349e-06</v>
+        <v>1.488230918326494e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.1337890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>74164.36056425143</v>
+        <v>88162.35308950907</v>
       </c>
     </row>
     <row r="5">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.96770621348688</v>
+        <v>68.27774553412316</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.9457288790876</v>
+        <v>93.4206236412941</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.50669791240297</v>
+        <v>84.50469043766061</v>
       </c>
       <c r="AD5" t="n">
-        <v>56967.70621348688</v>
+        <v>68277.74553412315</v>
       </c>
       <c r="AE5" t="n">
-        <v>77945.72887908759</v>
+        <v>93420.62364129409</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.900166658354217e-06</v>
+        <v>1.548421747059103e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.05078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>70506.69791240297</v>
+        <v>84504.69043766061</v>
       </c>
     </row>
     <row r="6">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.81057760255778</v>
+        <v>68.12061692319405</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.73073858158941</v>
+        <v>93.20563334379592</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.31222598715718</v>
+        <v>84.31021851241481</v>
       </c>
       <c r="AD6" t="n">
-        <v>56810.57760255778</v>
+        <v>68120.61692319404</v>
       </c>
       <c r="AE6" t="n">
-        <v>77730.73858158941</v>
+        <v>93205.63334379593</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.934299740984028e-06</v>
+        <v>1.55511178408285e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.041015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>70312.22598715717</v>
+        <v>84310.21851241481</v>
       </c>
     </row>
   </sheetData>
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.6646707715</v>
+        <v>117.3106375460555</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.5750641457805</v>
+        <v>160.5095896705123</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.7770229361232</v>
+        <v>145.1907797090268</v>
       </c>
       <c r="AD2" t="n">
-        <v>105664.6707715</v>
+        <v>117310.6375460555</v>
       </c>
       <c r="AE2" t="n">
-        <v>144575.0641457805</v>
+        <v>160509.5896705123</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.9932398193036e-06</v>
+        <v>9.600517585934578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.1787109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>130777.0229361232</v>
+        <v>145190.7797090268</v>
       </c>
     </row>
     <row r="3">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.81481840512079</v>
+        <v>81.37544432510464</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.52371455426122</v>
+        <v>111.3414729567954</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.40706530560148</v>
+        <v>100.7151990465662</v>
       </c>
       <c r="AD3" t="n">
-        <v>69814.81840512079</v>
+        <v>81375.44432510463</v>
       </c>
       <c r="AE3" t="n">
-        <v>95523.71455426121</v>
+        <v>111341.4729567954</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.663373284083653e-06</v>
+        <v>1.281168834474564e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.381184895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86407.06530560147</v>
+        <v>100715.1990465662</v>
       </c>
     </row>
     <row r="4">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.88658848517132</v>
+        <v>75.44721440515517</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.41244884274458</v>
+        <v>103.2302072452788</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.06992740935647</v>
+        <v>93.37806115032122</v>
       </c>
       <c r="AD4" t="n">
-        <v>63886.58848517132</v>
+        <v>75447.21440515516</v>
       </c>
       <c r="AE4" t="n">
-        <v>87412.44884274458</v>
+        <v>103230.2072452788</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.288856743512929e-06</v>
+        <v>1.401430731945362e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.177734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>79069.92740935646</v>
+        <v>93378.06115032121</v>
       </c>
     </row>
     <row r="5">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.20421724855665</v>
+        <v>71.76484316854049</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.37406606205745</v>
+        <v>98.19182446459169</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.51240080984186</v>
+        <v>88.82053455080661</v>
       </c>
       <c r="AD5" t="n">
-        <v>60204.21724855666</v>
+        <v>71764.84316854049</v>
       </c>
       <c r="AE5" t="n">
-        <v>82374.06606205745</v>
+        <v>98191.82446459169</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.683647472621132e-06</v>
+        <v>1.47733726707541e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.0654296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>74512.40080984187</v>
+        <v>88820.53455080661</v>
       </c>
     </row>
     <row r="6">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.73558910289174</v>
+        <v>70.29621502287557</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.36462424185868</v>
+        <v>96.1823826443929</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.69473729669291</v>
+        <v>87.00287103765767</v>
       </c>
       <c r="AD6" t="n">
-        <v>58735.58910289174</v>
+        <v>70296.21502287558</v>
       </c>
       <c r="AE6" t="n">
-        <v>80364.62424185868</v>
+        <v>96182.3826443929</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.780370713736306e-06</v>
+        <v>1.495934274447356e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.039388020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>72694.73729669291</v>
+        <v>87002.87103765766</v>
       </c>
     </row>
     <row r="7">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.86753560331388</v>
+        <v>70.42816152329772</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.54515926480491</v>
+        <v>96.36291766733915</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.85804231043171</v>
+        <v>87.16617605139646</v>
       </c>
       <c r="AD7" t="n">
-        <v>58867.53560331388</v>
+        <v>70428.16152329772</v>
       </c>
       <c r="AE7" t="n">
-        <v>80545.15926480491</v>
+        <v>96362.91766733915</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.770717890278241e-06</v>
+        <v>1.494078323106809e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.042643229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>72858.04231043172</v>
+        <v>87166.17605139647</v>
       </c>
     </row>
   </sheetData>
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.5728884114767</v>
+        <v>157.7585992902154</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.7603187444443</v>
+        <v>215.8522753669771</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3179304292442</v>
+        <v>195.2516371565858</v>
       </c>
       <c r="AD2" t="n">
-        <v>133572.8884114767</v>
+        <v>157758.5992902154</v>
       </c>
       <c r="AE2" t="n">
-        <v>182760.3187444443</v>
+        <v>215852.2753669771</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.119582305167751e-06</v>
+        <v>7.674469378940327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.717447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165317.9304292442</v>
+        <v>195251.6371565858</v>
       </c>
     </row>
     <row r="3">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.95156812272221</v>
+        <v>94.12976441666321</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.1297509534836</v>
+        <v>128.7924963869476</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.4282448976058</v>
+        <v>116.5007212932154</v>
       </c>
       <c r="AD3" t="n">
-        <v>81951.56812272221</v>
+        <v>94129.76441666321</v>
       </c>
       <c r="AE3" t="n">
-        <v>112129.7509534836</v>
+        <v>128792.4963869476</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.87675501939312e-06</v>
+        <v>1.094794887027505e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.605794270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>101428.2448976058</v>
+        <v>116500.7212932154</v>
       </c>
     </row>
     <row r="4">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.79229027280296</v>
+        <v>86.79989436615178</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.3341111541814</v>
+        <v>118.7634448127986</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.56748721247915</v>
+        <v>107.4288283254377</v>
       </c>
       <c r="AD4" t="n">
-        <v>74792.29027280296</v>
+        <v>86799.89436615177</v>
       </c>
       <c r="AE4" t="n">
-        <v>102334.1111541814</v>
+        <v>118763.4448127986</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.456863883968406e-06</v>
+        <v>1.202864768579576e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.373046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>92567.48721247914</v>
+        <v>107428.8283254377</v>
       </c>
     </row>
     <row r="5">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.35762853605905</v>
+        <v>82.36523262940786</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.26641132250347</v>
+        <v>112.6957449811206</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.07888013666438</v>
+        <v>101.9402212496229</v>
       </c>
       <c r="AD5" t="n">
-        <v>70357.62853605906</v>
+        <v>82365.23262940785</v>
       </c>
       <c r="AE5" t="n">
-        <v>96266.41132250347</v>
+        <v>112695.7449811206</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.838583798750587e-06</v>
+        <v>1.273976293494437e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.239583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>87078.88013666437</v>
+        <v>101940.2212496229</v>
       </c>
     </row>
     <row r="6">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.61093434721171</v>
+        <v>79.6185384405605</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.50826315772895</v>
+        <v>108.9375968163461</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.67940435814066</v>
+        <v>98.5407454710992</v>
       </c>
       <c r="AD6" t="n">
-        <v>67610.9343472117</v>
+        <v>79618.5384405605</v>
       </c>
       <c r="AE6" t="n">
-        <v>92508.26315772894</v>
+        <v>108937.5968163461</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.082334927765836e-06</v>
+        <v>1.319385280064824e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.1630859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>83679.40435814066</v>
+        <v>98540.7454710992</v>
       </c>
     </row>
     <row r="7">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.74403650886165</v>
+        <v>76.75164060221046</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.58564705669416</v>
+        <v>105.0149807153113</v>
       </c>
       <c r="AC7" t="n">
-        <v>80.13115723236112</v>
+        <v>94.99249834531966</v>
       </c>
       <c r="AD7" t="n">
-        <v>64744.03650886166</v>
+        <v>76751.64060221046</v>
       </c>
       <c r="AE7" t="n">
-        <v>88585.64705669416</v>
+        <v>105014.9807153113</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.3216627737449e-06</v>
+        <v>1.36397024255459e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.091471354166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>80131.15723236112</v>
+        <v>94992.49834531966</v>
       </c>
     </row>
     <row r="8">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.0085287266568</v>
+        <v>75.01613282000558</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.211048743883</v>
+        <v>102.6403824025002</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.98318724975424</v>
+        <v>92.84452836271279</v>
       </c>
       <c r="AD8" t="n">
-        <v>63008.5287266568</v>
+        <v>75016.13282000559</v>
       </c>
       <c r="AE8" t="n">
-        <v>86211.048743883</v>
+        <v>102640.3824025002</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.439209167621365e-06</v>
+        <v>1.38586824418641e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.058919270833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>77983.18724975424</v>
+        <v>92844.52836271279</v>
       </c>
     </row>
     <row r="9">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.93433691507958</v>
+        <v>74.94194100842837</v>
       </c>
       <c r="AB9" t="n">
-        <v>86.10953623417139</v>
+        <v>102.5388698927885</v>
       </c>
       <c r="AC9" t="n">
-        <v>77.89136295149575</v>
+        <v>92.75270406445431</v>
       </c>
       <c r="AD9" t="n">
-        <v>62934.33691507958</v>
+        <v>74941.94100842837</v>
       </c>
       <c r="AE9" t="n">
-        <v>86109.53623417139</v>
+        <v>102538.8698927885</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.424527632437435e-06</v>
+        <v>1.383133185535838e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.063802083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>77891.36295149576</v>
+        <v>92752.7040644543</v>
       </c>
     </row>
   </sheetData>
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.75778215338816</v>
+        <v>92.91340827703435</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.81391915526457</v>
+        <v>127.1282242548626</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.57413459029898</v>
+        <v>114.9952849575954</v>
       </c>
       <c r="AD2" t="n">
-        <v>70757.78215338817</v>
+        <v>92913.40827703435</v>
       </c>
       <c r="AE2" t="n">
-        <v>96813.91915526456</v>
+        <v>127128.2242548626</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.248502243195889e-06</v>
+        <v>1.252510621897503e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.6513671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>87574.13459029899</v>
+        <v>114995.2849575954</v>
       </c>
     </row>
     <row r="3">
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.79063861207347</v>
+        <v>70.82587075516179</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.8081895258197</v>
+        <v>96.90708098406827</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.00053073600976</v>
+        <v>87.65840518491514</v>
       </c>
       <c r="AD3" t="n">
-        <v>59790.63861207347</v>
+        <v>70825.87075516178</v>
       </c>
       <c r="AE3" t="n">
-        <v>81808.1895258197</v>
+        <v>96907.08098406828</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.475681163813772e-06</v>
+        <v>1.498498311942159e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.216796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>74000.53073600976</v>
+        <v>87658.40518491514</v>
       </c>
     </row>
     <row r="4">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.90767836344673</v>
+        <v>65.94291050653504</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.12710789264945</v>
+        <v>90.22599935089802</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.95708215695018</v>
+        <v>81.61495660585557</v>
       </c>
       <c r="AD4" t="n">
-        <v>54907.67836344673</v>
+        <v>65942.91050653504</v>
       </c>
       <c r="AE4" t="n">
-        <v>75127.10789264945</v>
+        <v>90225.99935089803</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.070078453996066e-06</v>
+        <v>1.617645091538998e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.054036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>67957.08215695019</v>
+        <v>81614.95660585556</v>
       </c>
     </row>
     <row r="5">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.61708778391335</v>
+        <v>65.65231992700166</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.72950904178049</v>
+        <v>89.82840050002906</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.59742958237453</v>
+        <v>81.25530403127992</v>
       </c>
       <c r="AD5" t="n">
-        <v>54617.08778391335</v>
+        <v>65652.31992700166</v>
       </c>
       <c r="AE5" t="n">
-        <v>74729.50904178049</v>
+        <v>89828.40050002906</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.119458838672054e-06</v>
+        <v>1.627543376586012e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.041015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>67597.42958237453</v>
+        <v>81255.30403127991</v>
       </c>
     </row>
   </sheetData>
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.482011088205</v>
+        <v>72.04200874905632</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.12239996574908</v>
+        <v>98.57105463953566</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.09387617956777</v>
+        <v>89.16357153010695</v>
       </c>
       <c r="AD2" t="n">
-        <v>61482.011088205</v>
+        <v>72042.00874905632</v>
       </c>
       <c r="AE2" t="n">
-        <v>84122.39996574908</v>
+        <v>98571.05463953567</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.915387260533801e-06</v>
+        <v>1.446742262295079e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.496744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76093.87617956777</v>
+        <v>89163.57153010694</v>
       </c>
     </row>
     <row r="3">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.15236380696486</v>
+        <v>61.71236146781619</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.98892084368789</v>
+        <v>84.4375755174745</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.30927646844908</v>
+        <v>76.37897181898828</v>
       </c>
       <c r="AD3" t="n">
-        <v>51152.36380696487</v>
+        <v>61712.36146781619</v>
       </c>
       <c r="AE3" t="n">
-        <v>69988.9208436879</v>
+        <v>84437.5755174745</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.356287378956169e-06</v>
+        <v>1.748187578158231e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.0654296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>63309.27646844908</v>
+        <v>76378.97181898827</v>
       </c>
     </row>
     <row r="4">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.19293282602156</v>
+        <v>61.75293048687288</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.04442916534006</v>
+        <v>84.49308383912663</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.35948715378919</v>
+        <v>76.42918250432838</v>
       </c>
       <c r="AD4" t="n">
-        <v>51192.93282602156</v>
+        <v>61752.93048687288</v>
       </c>
       <c r="AE4" t="n">
-        <v>70044.42916534006</v>
+        <v>84493.08383912663</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.366574977328535e-06</v>
+        <v>1.750339808074227e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.063802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>63359.48715378919</v>
+        <v>76429.18250432838</v>
       </c>
     </row>
   </sheetData>
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.18434479283874</v>
+        <v>62.36447864971203</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.40092275634777</v>
+        <v>85.32983101512355</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.58651890032226</v>
+        <v>77.18607170423044</v>
       </c>
       <c r="AD2" t="n">
-        <v>52184.34479283875</v>
+        <v>62364.47864971204</v>
       </c>
       <c r="AE2" t="n">
-        <v>71400.92275634776</v>
+        <v>85329.83101512355</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.852952892206234e-06</v>
+        <v>1.707118695513635e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.273763020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64586.51890032226</v>
+        <v>77186.07170423045</v>
       </c>
     </row>
     <row r="3">
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.57089607353586</v>
+        <v>58.75102993040915</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.45684280449341</v>
+        <v>80.38575106326921</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.11429500001153</v>
+        <v>72.71384780391971</v>
       </c>
       <c r="AD3" t="n">
-        <v>48570.89607353586</v>
+        <v>58751.02993040915</v>
       </c>
       <c r="AE3" t="n">
-        <v>66456.84280449341</v>
+        <v>80385.75106326921</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.488842620380076e-06</v>
+        <v>1.845351950971975e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.102864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>60114.29500001153</v>
+        <v>72713.84780391971</v>
       </c>
     </row>
   </sheetData>
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.09165727325405</v>
+        <v>53.51878326827391</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.32815066788164</v>
+        <v>73.22676034970782</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.5705166392426</v>
+        <v>66.23810111635179</v>
       </c>
       <c r="AD2" t="n">
-        <v>44091.65727325405</v>
+        <v>53518.78326827391</v>
       </c>
       <c r="AE2" t="n">
-        <v>60328.15066788164</v>
+        <v>73226.76034970782</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.310270984476534e-06</v>
+        <v>1.976620361076081e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.306315104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>54570.5166392426</v>
+        <v>66238.10111635178</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.10318911518654</v>
+        <v>110.626534924891</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.5973554714762</v>
+        <v>151.3641055824438</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.6561341773984</v>
+        <v>136.918127786553</v>
       </c>
       <c r="AD2" t="n">
-        <v>99103.18911518654</v>
+        <v>110626.534924891</v>
       </c>
       <c r="AE2" t="n">
-        <v>135597.3554714762</v>
+        <v>151364.1055824438</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.273817460337321e-06</v>
+        <v>1.023425516787955e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.038736979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>122656.1341773984</v>
+        <v>136918.1277865531</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.81913477067341</v>
+        <v>78.25713972580627</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.42488804537786</v>
+        <v>107.0748710341479</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.69942504598546</v>
+        <v>96.85579562320132</v>
       </c>
       <c r="AD3" t="n">
-        <v>66819.13477067341</v>
+        <v>78257.13972580626</v>
       </c>
       <c r="AE3" t="n">
-        <v>91424.88804537785</v>
+        <v>107074.8710341479</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.90360569218896e-06</v>
+        <v>1.339698667305949e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.320963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82699.42504598547</v>
+        <v>96855.79562320132</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.10680163194441</v>
+        <v>72.54480658707726</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.60902183462065</v>
+        <v>99.25900482339065</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.62949413674333</v>
+        <v>89.78586471395919</v>
       </c>
       <c r="AD4" t="n">
-        <v>61106.80163194441</v>
+        <v>72544.80658707726</v>
       </c>
       <c r="AE4" t="n">
-        <v>83609.02183462065</v>
+        <v>99259.00482339066</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.545180938745663e-06</v>
+        <v>1.464201360697171e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.1240234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>75629.49413674333</v>
+        <v>89785.86471395919</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.36465147499174</v>
+        <v>70.80265643012459</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.22533513163866</v>
+        <v>96.87531812040866</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.4733031471679</v>
+        <v>87.62967372438372</v>
       </c>
       <c r="AD5" t="n">
-        <v>59364.65147499174</v>
+        <v>70802.65643012458</v>
       </c>
       <c r="AE5" t="n">
-        <v>81225.33513163865</v>
+        <v>96875.31812040866</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.673495988057003e-06</v>
+        <v>1.489101899375416e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.088216145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>73473.3031471679</v>
+        <v>87629.67372438373</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.60190287529377</v>
+        <v>69.03990783042661</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.81346473055342</v>
+        <v>94.46344771932343</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.2916182720801</v>
+        <v>85.44798884929592</v>
       </c>
       <c r="AD6" t="n">
-        <v>57601.90287529377</v>
+        <v>69039.90783042661</v>
       </c>
       <c r="AE6" t="n">
-        <v>78813.46473055342</v>
+        <v>94463.44771932342</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.888864378574194e-06</v>
+        <v>1.530895819628156e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>71291.6182720801</v>
+        <v>85447.98884929593</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.6710454157894</v>
+        <v>149.644706824038</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.9486685530406</v>
+        <v>204.7504897350866</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.5381289578583</v>
+        <v>185.2093903639454</v>
       </c>
       <c r="AD2" t="n">
-        <v>125671.0454157894</v>
+        <v>149644.706824038</v>
       </c>
       <c r="AE2" t="n">
-        <v>171948.6685530407</v>
+        <v>204750.4897350866</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.326272836872299e-06</v>
+        <v>8.117784732697823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.5693359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>155538.1289578583</v>
+        <v>185209.3903639454</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.37552520536465</v>
+        <v>90.44769676406058</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.2368512700783</v>
+        <v>123.7545289832989</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.00231669275533</v>
+        <v>111.9435704277377</v>
       </c>
       <c r="AD3" t="n">
-        <v>78375.52520536465</v>
+        <v>90447.69676406059</v>
       </c>
       <c r="AE3" t="n">
-        <v>107236.8512700783</v>
+        <v>123754.5289832989</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088097392462803e-06</v>
+        <v>1.142365863809961e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.537434895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>97002.31669275532</v>
+        <v>111943.5704277377</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.45845192462889</v>
+        <v>83.36003128273261</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.77260644764429</v>
+        <v>114.056872386018</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.44132611302039</v>
+        <v>103.1714445653517</v>
       </c>
       <c r="AD4" t="n">
-        <v>71458.45192462888</v>
+        <v>83360.03128273261</v>
       </c>
       <c r="AE4" t="n">
-        <v>97772.6064476443</v>
+        <v>114056.872386018</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.690587110411964e-06</v>
+        <v>1.2554165663059e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.307942708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>88441.32611302039</v>
+        <v>103171.4445653517</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.15942445392737</v>
+        <v>79.0610038120311</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.89048740252699</v>
+        <v>108.1747533409007</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.12058825396123</v>
+        <v>97.85070670629256</v>
       </c>
       <c r="AD5" t="n">
-        <v>67159.42445392738</v>
+        <v>79061.00381203111</v>
       </c>
       <c r="AE5" t="n">
-        <v>91890.48740252698</v>
+        <v>108174.7533409007</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.101198704295411e-06</v>
+        <v>1.332463406705952e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.174479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>83120.58825396124</v>
+        <v>97850.70670629255</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.75939765683097</v>
+        <v>76.66097701493469</v>
       </c>
       <c r="AB6" t="n">
-        <v>88.60666485703176</v>
+        <v>104.8909307954055</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.15016912333317</v>
+        <v>94.88028757566447</v>
       </c>
       <c r="AD6" t="n">
-        <v>64759.39765683097</v>
+        <v>76660.97701493469</v>
       </c>
       <c r="AE6" t="n">
-        <v>88606.66485703176</v>
+        <v>104890.9307954055</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.309588595713959e-06</v>
+        <v>1.371565523997034e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.112630208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>80150.16912333317</v>
+        <v>94880.28757566446</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.42313267304515</v>
+        <v>74.32471203114888</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.41008403748076</v>
+        <v>101.6943499758545</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.25866549076976</v>
+        <v>91.98878394310104</v>
       </c>
       <c r="AD7" t="n">
-        <v>62423.13267304515</v>
+        <v>74324.71203114888</v>
       </c>
       <c r="AE7" t="n">
-        <v>85410.08403748076</v>
+        <v>101694.3499758545</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.501751405423686e-06</v>
+        <v>1.407622804285942e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.058919270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>77258.66549076975</v>
+        <v>91988.78394310104</v>
       </c>
     </row>
     <row r="8">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.81189281644022</v>
+        <v>73.71347217454397</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.57375869967501</v>
+        <v>100.8580246380487</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.50215786941394</v>
+        <v>91.23227632174522</v>
       </c>
       <c r="AD8" t="n">
-        <v>61811.89281644022</v>
+        <v>73713.47217454396</v>
       </c>
       <c r="AE8" t="n">
-        <v>84573.75869967502</v>
+        <v>100858.0246380488</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.533351511909284e-06</v>
+        <v>1.413552223711229e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.05078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>76502.15786941393</v>
+        <v>91232.27632174522</v>
       </c>
     </row>
   </sheetData>
@@ -22064,28 +22064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.49030660665051</v>
+        <v>51.73584042445541</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.13711203923037</v>
+        <v>70.7872592929097</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.58858766216708</v>
+        <v>64.03142261655246</v>
       </c>
       <c r="AD2" t="n">
-        <v>42490.30660665051</v>
+        <v>51735.84042445541</v>
       </c>
       <c r="AE2" t="n">
-        <v>58137.11203923037</v>
+        <v>70787.2592929097</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.744322492282271e-06</v>
+        <v>1.936796284019095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.561848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>52588.58766216708</v>
+        <v>64031.42261655246</v>
       </c>
     </row>
   </sheetData>
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.29537903297668</v>
+        <v>74.02407466129887</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.60352998793203</v>
+        <v>101.2830046632412</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.33821063472224</v>
+        <v>91.61669684979667</v>
       </c>
       <c r="AD2" t="n">
-        <v>63295.37903297668</v>
+        <v>74024.07466129887</v>
       </c>
       <c r="AE2" t="n">
-        <v>86603.52998793204</v>
+        <v>101283.0046632412</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.813544674184426e-06</v>
+        <v>1.403101983870393e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.496744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78338.21063472224</v>
+        <v>91616.69684979667</v>
       </c>
     </row>
     <row r="3">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.99307837766072</v>
+        <v>64.72177400598291</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.87571184279399</v>
+        <v>88.55518651810317</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.82511758974714</v>
+        <v>80.10360380482159</v>
       </c>
       <c r="AD3" t="n">
-        <v>53993.07837766071</v>
+        <v>64721.77400598291</v>
       </c>
       <c r="AE3" t="n">
-        <v>73875.71184279399</v>
+        <v>88555.18651810318</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.045425691986861e-06</v>
+        <v>1.656781204103549e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.1142578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>66825.11758974714</v>
+        <v>80103.60380482159</v>
       </c>
     </row>
     <row r="4">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.36571163730576</v>
+        <v>63.09440726562795</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.64907687428786</v>
+        <v>86.32855154959704</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.81098953753272</v>
+        <v>78.08947575260716</v>
       </c>
       <c r="AD4" t="n">
-        <v>52365.71163730576</v>
+        <v>63094.40726562795</v>
       </c>
       <c r="AE4" t="n">
-        <v>71649.07687428786</v>
+        <v>86328.55154959703</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.263437383098752e-06</v>
+        <v>1.701675991021879e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.058919270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>64810.98953753273</v>
+        <v>78089.47575260716</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.87027274567596</v>
+        <v>98.30754654865115</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.8090543307958</v>
+        <v>134.5087222106703</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.90166388241366</v>
+        <v>121.6713985470971</v>
       </c>
       <c r="AD2" t="n">
-        <v>75870.27274567596</v>
+        <v>98307.54654865115</v>
       </c>
       <c r="AE2" t="n">
-        <v>103809.0543307958</v>
+        <v>134508.7222106703</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.907244937553959e-06</v>
+        <v>1.170333981469144e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.771809895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>93901.66388241366</v>
+        <v>121671.3985470971</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.82818462449637</v>
+        <v>72.00424060724919</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.22780575331556</v>
+        <v>98.51937860170236</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.28466078319776</v>
+        <v>89.11682738079666</v>
       </c>
       <c r="AD3" t="n">
-        <v>60828.18462449637</v>
+        <v>72004.24060724919</v>
       </c>
       <c r="AE3" t="n">
-        <v>83227.80575331557</v>
+        <v>98519.37860170235</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.439323078477469e-06</v>
+        <v>1.473866868549887e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.2021484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>75284.66078319776</v>
+        <v>89116.82738079666</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.49514198842031</v>
+        <v>68.67119797117314</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.66738977517531</v>
+        <v>93.95896262356209</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.15948450542574</v>
+        <v>84.99165110302462</v>
       </c>
       <c r="AD4" t="n">
-        <v>57495.14198842031</v>
+        <v>68671.19797117314</v>
       </c>
       <c r="AE4" t="n">
-        <v>78667.38977517531</v>
+        <v>93958.96262356208</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.81987736252927e-06</v>
+        <v>1.549261678673319e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.0947265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>71159.48450542573</v>
+        <v>84991.65110302462</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.49327057668479</v>
+        <v>66.66932655943761</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.92834099330651</v>
+        <v>91.21991384169328</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.68184669501851</v>
+        <v>82.51401329261741</v>
       </c>
       <c r="AD5" t="n">
-        <v>55493.27057668479</v>
+        <v>66669.32655943761</v>
       </c>
       <c r="AE5" t="n">
-        <v>75928.34099330651</v>
+        <v>91219.91384169328</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.037322578773571e-06</v>
+        <v>1.592341579433958e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.037760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>68681.84669501851</v>
+        <v>82514.01329261741</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.64184736110404</v>
+        <v>66.81790334385686</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.13163030449394</v>
+        <v>91.42320315288072</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.86573435966461</v>
+        <v>82.69790095726351</v>
       </c>
       <c r="AD6" t="n">
-        <v>55641.84736110404</v>
+        <v>66817.90334385686</v>
       </c>
       <c r="AE6" t="n">
-        <v>76131.63030449394</v>
+        <v>91423.20315288071</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.035712618819887e-06</v>
+        <v>1.592022616725874e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.037760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>68865.73435966461</v>
+        <v>82697.90095726351</v>
       </c>
     </row>
   </sheetData>
